--- a/Python Excel Manipulation/currencies_before.xlsx
+++ b/Python Excel Manipulation/currencies_before.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C5C27A-AE92-43B5-8150-49E80B5811D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82277032-87C3-4D42-947A-C57700255281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>First Currency</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Second Currency</t>
-  </si>
-  <si>
-    <t>uzs</t>
   </si>
   <si>
     <t>jpy</t>
@@ -436,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,7 +483,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -495,21 +492,12 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
